--- a/resources/works.xlsx
+++ b/resources/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttkmw/beyond-eyesight/workasme/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA8C408-575B-A04D-AD57-B9040E6F1C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8680C9B0-0CC8-AE47-8CBC-57D051EBDBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="522">
   <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2079,6 +2079,18 @@
   </si>
   <si>
     <t>조건부 렌더링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인지업 오티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4! 소스 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2546,8 +2558,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A5:W95" totalsRowShown="0" dataDxfId="44">
-  <autoFilter ref="A5:W95" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A5:W98" totalsRowShown="0" dataDxfId="44">
+  <autoFilter ref="A5:W98" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="43"/>
     <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="42"/>
@@ -4175,10 +4187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18853549-B466-0346-BACD-864EAEBAA247}">
-  <dimension ref="A3:W95"/>
+  <dimension ref="A3:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="H86" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8711,7 +8723,9 @@
       <c r="C95" s="4">
         <v>44382</v>
       </c>
-      <c r="D95" s="2"/>
+      <c r="D95" s="10">
+        <v>0.875</v>
+      </c>
       <c r="E95" s="10" t="s">
         <v>164</v>
       </c>
@@ -8721,10 +8735,18 @@
       <c r="G95" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
+      <c r="H95" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -8737,6 +8759,131 @@
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
+    </row>
+    <row r="96" spans="1:23" ht="19">
+      <c r="A96" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B96" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="C96" s="4">
+        <v>44382</v>
+      </c>
+      <c r="D96" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+    </row>
+    <row r="97" spans="1:23" ht="19">
+      <c r="A97" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B97" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C97" s="4">
+        <v>44382</v>
+      </c>
+      <c r="D97" s="10">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+    </row>
+    <row r="98" spans="1:23" ht="19">
+      <c r="A98" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B98" s="10">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C98" s="4">
+        <v>44382</v>
+      </c>
+      <c r="D98" s="10">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/resources/works.xlsx
+++ b/resources/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttkmw/beyond-eyesight/workasme/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8680C9B0-0CC8-AE47-8CBC-57D051EBDBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF88842-7D63-7F46-A586-2E89BFAA2C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="527">
   <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1398,10 +1398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BottleNeck Logs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Happened: BottleNeckCreated(타임트래커가 너무 커져서 보기가 불편함), Happened: DirectionChanged_한방에정리, InterruptedByCoreProject(체인지업 스터디원 문의)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2091,6 +2087,30 @@
   </si>
   <si>
     <t>소스찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BottleNeck Logs(Task 관리로 넘어가자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:20:00 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:40:00 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목욕탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev front</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2558,8 +2578,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A5:W98" totalsRowShown="0" dataDxfId="44">
-  <autoFilter ref="A5:W98" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A6:W102" totalsRowShown="0" dataDxfId="44">
+  <autoFilter ref="A6:W102" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="43"/>
     <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="42"/>
@@ -2580,7 +2600,7 @@
     <tableColumn id="23" xr3:uid="{84031E54-5B38-494E-8664-F0D7C2B7E9B8}" name="OrdinaryTask" dataDxfId="27"/>
     <tableColumn id="22" xr3:uid="{1917C49F-3C4A-1945-9482-740910E4ADCA}" name="ShouldBeRespected(ShowedPerformance/WowPoint)" dataDxfId="26"/>
     <tableColumn id="7" xr3:uid="{2562DADF-4F43-B64D-9648-CCFDCDCA42B8}" name="Self Feedback Text" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{76E0BAFE-9B5C-9948-BA57-9A5133BBB457}" name="BottleNeck Logs" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{76E0BAFE-9B5C-9948-BA57-9A5133BBB457}" name="BottleNeck Logs(Task 관리로 넘어가자)" dataDxfId="24"/>
     <tableColumn id="15" xr3:uid="{8FA702C1-AAA9-B640-8588-9D6E8E8CA467}" name="UnExpectedAccident" dataDxfId="23"/>
     <tableColumn id="11" xr3:uid="{1B632BF0-4E92-A944-94CB-E3F92EB9E963}" name="CurrentStatusLog" dataDxfId="22"/>
     <tableColumn id="21" xr3:uid="{4CE2114E-17E5-8742-A40E-0B671990938E}" name="CurrentState" dataDxfId="21"/>
@@ -3000,7 +3020,7 @@
         <v>173</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>176</v>
@@ -3024,7 +3044,7 @@
         <v>125</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>296</v>
@@ -3053,7 +3073,7 @@
         <v>215</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>180</v>
@@ -3063,7 +3083,7 @@
         <v>179</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>120</v>
@@ -3118,7 +3138,7 @@
         <v>177</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>282</v>
@@ -3226,7 +3246,7 @@
         <v>179</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>120</v>
@@ -3336,7 +3356,7 @@
         <v>178</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>264</v>
@@ -3391,7 +3411,7 @@
         <v>178</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>264</v>
@@ -3446,7 +3466,7 @@
         <v>177</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>264</v>
@@ -3501,7 +3521,7 @@
         <v>177</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>282</v>
@@ -3556,7 +3576,7 @@
         <v>283</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>282</v>
@@ -3611,7 +3631,7 @@
         <v>177</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>282</v>
@@ -3666,7 +3686,7 @@
         <v>177</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>282</v>
@@ -3721,7 +3741,7 @@
         <v>177</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>282</v>
@@ -3776,7 +3796,7 @@
         <v>177</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>282</v>
@@ -3831,7 +3851,7 @@
         <v>177</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>282</v>
@@ -3979,7 +3999,7 @@
         <v>270</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>90</v>
@@ -3989,16 +4009,16 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>66</v>
@@ -4034,26 +4054,26 @@
         <v>333</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
         <v>178</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>0</v>
@@ -4087,28 +4107,28 @@
         <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>177</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>282</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>0</v>
@@ -4117,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>273</v>
@@ -4187,10 +4207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18853549-B466-0346-BACD-864EAEBAA247}">
-  <dimension ref="A3:W98"/>
+  <dimension ref="A3:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H86" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="B89" zoomScale="141" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4217,166 +4237,119 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:23" ht="189" customHeight="1"/>
-    <row r="5" spans="1:23">
-      <c r="A5" t="s">
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
         <v>315</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>316</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>128</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>118</v>
       </c>
-      <c r="F5" t="s">
-        <v>486</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G6" t="s">
         <v>138</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>211</v>
       </c>
-      <c r="I5" t="s">
-        <v>477</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J6" t="s">
         <v>139</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K6" t="s">
         <v>212</v>
       </c>
-      <c r="L5" t="s">
-        <v>470</v>
-      </c>
-      <c r="M5" t="s">
-        <v>359</v>
-      </c>
-      <c r="N5" t="s">
-        <v>402</v>
-      </c>
-      <c r="O5" t="s">
-        <v>361</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="L6" t="s">
+        <v>469</v>
+      </c>
+      <c r="M6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N6" t="s">
+        <v>401</v>
+      </c>
+      <c r="O6" t="s">
+        <v>360</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="S5" t="s">
+      <c r="R6" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="S6" t="s">
         <v>132</v>
       </c>
-      <c r="T5" t="s">
-        <v>355</v>
-      </c>
-      <c r="U5" s="1" t="s">
+      <c r="T6" t="s">
+        <v>521</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="V5" t="s">
-        <v>404</v>
-      </c>
-      <c r="W5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="171">
-      <c r="A6" s="4">
-        <v>44348</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="57">
+      <c r="V6" t="s">
+        <v>403</v>
+      </c>
+      <c r="W6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="171">
       <c r="A7" s="4">
         <v>44348</v>
       </c>
       <c r="B7" s="10">
-        <v>0.6118055555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10">
-        <v>0.62916666666666665</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
@@ -4389,11 +4362,11 @@
         <v>44348</v>
       </c>
       <c r="B8" s="10">
-        <v>0.62986111111111109</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
-        <v>0.64583333333333337</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>164</v>
@@ -4401,18 +4374,18 @@
       <c r="F8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>126</v>
+      <c r="G8" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -4431,16 +4404,16 @@
       </c>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="95">
+    <row r="9" spans="1:23" ht="57">
       <c r="A9" s="4">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B9" s="10">
-        <v>0.66666666666666663</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10">
-        <v>0.68541666666666667</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>164</v>
@@ -4448,18 +4421,18 @@
       <c r="F9" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>214</v>
+      <c r="G9" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -4471,25 +4444,23 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="57">
+    <row r="10" spans="1:23" ht="95">
       <c r="A10" s="4">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B10" s="10">
-        <v>0.6875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10">
-        <v>0.72916666666666663</v>
+        <v>0.68541666666666667</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>164</v>
@@ -4498,17 +4469,17 @@
         <v>115</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -4520,10 +4491,12 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="W10" s="2"/>
     </row>
@@ -4532,11 +4505,11 @@
         <v>44348</v>
       </c>
       <c r="B11" s="10">
-        <v>0.72916666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>164</v>
@@ -4545,28 +4518,28 @@
         <v>115</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
@@ -4579,11 +4552,11 @@
         <v>44348</v>
       </c>
       <c r="B12" s="10">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
-        <v>0.85416666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>164</v>
@@ -4592,27 +4565,27 @@
         <v>115</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -4621,189 +4594,187 @@
       </c>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="76">
+    <row r="13" spans="1:23" ht="57">
       <c r="A13" s="4">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B13" s="10">
-        <v>0.84722222222222221</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
-        <v>0.8930555555555556</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>160</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="57">
+    <row r="14" spans="1:23" ht="76">
       <c r="A14" s="4">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B14" s="10">
-        <v>0.8930555555555556</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10">
-        <v>0.92083333333333339</v>
+        <v>0.8930555555555556</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="19">
+    <row r="15" spans="1:23" ht="57">
       <c r="A15" s="4">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B15" s="10">
+        <v>0.8930555555555556</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
         <v>0.92083333333333339</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="2"/>
       <c r="E15" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s">
-        <v>165</v>
+      <c r="F15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="K15" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="2">
+        <v>10</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="57">
+    <row r="16" spans="1:23" ht="19">
       <c r="A16" s="4">
         <v>44349</v>
       </c>
       <c r="B16" s="10">
-        <v>0.50277777777777777</v>
+        <v>0.92083333333333339</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="10">
-        <v>0.5444444444444444</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>208</v>
+      <c r="F16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>165</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2">
-        <v>9</v>
-      </c>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="W16" s="2"/>
     </row>
@@ -4812,11 +4783,11 @@
         <v>44349</v>
       </c>
       <c r="B17" s="10">
-        <v>0.54791666666666672</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10">
-        <v>0.55486111111111114</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>164</v>
@@ -4825,28 +4796,30 @@
         <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="2">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="S17" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
@@ -4854,16 +4827,16 @@
       </c>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" ht="38">
+    <row r="18" spans="1:23" ht="57">
       <c r="A18" s="4">
         <v>44349</v>
       </c>
       <c r="B18" s="10">
-        <v>0.55555555555555558</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
-        <v>0.65694444444444444</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>164</v>
@@ -4872,47 +4845,45 @@
         <v>115</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>156</v>
+        <v>210</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" ht="57">
-      <c r="A19" s="2" t="s">
-        <v>217</v>
+    <row r="19" spans="1:23" ht="38">
+      <c r="A19" s="4">
+        <v>44349</v>
       </c>
       <c r="B19" s="10">
-        <v>0.66319444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10">
-        <v>0.67013888888888884</v>
+        <v>0.65694444444444444</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>164</v>
@@ -4921,45 +4892,47 @@
         <v>115</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="S19" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" ht="57">
-      <c r="A20" s="4">
-        <v>44349</v>
+      <c r="A20" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B20" s="10">
-        <v>0.67569444444444438</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10">
-        <v>0.72916666666666663</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>164</v>
@@ -4968,30 +4941,28 @@
         <v>115</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2" t="s">
@@ -5004,42 +4975,42 @@
         <v>44349</v>
       </c>
       <c r="B21" s="10">
-        <v>0.72916666666666663</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10">
-        <v>0.77569444444444446</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>115</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -5053,42 +5024,42 @@
         <v>44349</v>
       </c>
       <c r="B22" s="10">
-        <v>0.78472222222222221</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10">
-        <v>0.80555555555555547</v>
+        <v>0.77569444444444446</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -5101,31 +5072,31 @@
       <c r="A23" s="4">
         <v>44349</v>
       </c>
-      <c r="B23" s="2">
-        <v>19.21</v>
-      </c>
-      <c r="C23" s="2"/>
+      <c r="B23" s="10">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="10">
-        <v>0.82708333333333339</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -5137,7 +5108,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -5146,47 +5117,47 @@
       </c>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" ht="76">
+    <row r="24" spans="1:23" ht="57">
       <c r="A24" s="4">
         <v>44349</v>
       </c>
-      <c r="B24" s="10">
-        <v>0.82777777777777783</v>
-      </c>
-      <c r="C24" s="10"/>
+      <c r="B24" s="2">
+        <v>19.21</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="10">
-        <v>0.84375</v>
+        <v>0.82708333333333339</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -5195,16 +5166,16 @@
       </c>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" ht="57">
+    <row r="25" spans="1:23" ht="76">
       <c r="A25" s="4">
         <v>44349</v>
       </c>
       <c r="B25" s="10">
-        <v>0.84444444444444444</v>
+        <v>0.82777777777777783</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10">
-        <v>0.85486111111111107</v>
+        <v>0.84375</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>164</v>
@@ -5213,28 +5184,30 @@
         <v>81</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
+      <c r="S25" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2" t="s">
@@ -5242,16 +5215,16 @@
       </c>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" ht="19">
+    <row r="26" spans="1:23" ht="57">
       <c r="A26" s="4">
         <v>44349</v>
       </c>
       <c r="B26" s="10">
-        <v>0.85555555555555562</v>
+        <v>0.84444444444444444</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10">
-        <v>0.89166666666666661</v>
+        <v>0.85486111111111107</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>164</v>
@@ -5260,119 +5233,119 @@
         <v>81</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+    <row r="27" spans="1:23" ht="19">
+      <c r="A27" s="4">
+        <v>44349</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10">
+        <v>0.89166666666666661</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="2">
+        <v>8</v>
+      </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
+      <c r="S27" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="V27" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" ht="57">
-      <c r="A28" s="4">
-        <v>44350</v>
-      </c>
-      <c r="B28" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>225</v>
-      </c>
+    <row r="28" spans="1:23">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2">
-        <v>9</v>
-      </c>
+      <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="2" t="s">
-        <v>347</v>
-      </c>
+      <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" ht="95">
+    <row r="29" spans="1:23" ht="57">
       <c r="A29" s="4">
         <v>44350</v>
       </c>
       <c r="B29" s="10">
-        <v>0.56944444444444442</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10">
-        <v>0.57638888888888895</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>164</v>
@@ -5381,30 +5354,28 @@
         <v>115</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2" t="s">
@@ -5412,16 +5383,16 @@
       </c>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" ht="57">
+    <row r="30" spans="1:23" ht="95">
       <c r="A30" s="4">
         <v>44350</v>
       </c>
       <c r="B30" s="10">
-        <v>0.57638888888888895</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10">
-        <v>0.60416666666666663</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>164</v>
@@ -5430,29 +5401,29 @@
         <v>115</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -5466,11 +5437,11 @@
         <v>44350</v>
       </c>
       <c r="B31" s="10">
-        <v>0.60416666666666663</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10">
-        <v>0.6166666666666667</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>164</v>
@@ -5479,29 +5450,29 @@
         <v>115</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" t="s">
-        <v>249</v>
+      <c r="S31" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -5515,11 +5486,11 @@
         <v>44350</v>
       </c>
       <c r="B32" s="10">
-        <v>0.61805555555555558</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10">
-        <v>0.625</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>164</v>
@@ -5528,17 +5499,17 @@
         <v>115</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -5549,8 +5520,8 @@
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2" t="s">
-        <v>261</v>
+      <c r="S32" t="s">
+        <v>249</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -5564,11 +5535,11 @@
         <v>44350</v>
       </c>
       <c r="B33" s="10">
-        <v>0.29166666666666669</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10">
-        <v>0.45833333333333331</v>
+        <v>0.625</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>164</v>
@@ -5577,29 +5548,29 @@
         <v>115</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>252</v>
+        <v>145</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -5608,16 +5579,16 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="76">
+    <row r="34" spans="1:23" ht="57">
       <c r="A34" s="4">
         <v>44350</v>
       </c>
       <c r="B34" s="10">
-        <v>0.45833333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
-        <v>0.54166666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>164</v>
@@ -5626,29 +5597,29 @@
         <v>115</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -5657,16 +5628,16 @@
       </c>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="57">
+    <row r="35" spans="1:23" ht="76">
       <c r="A35" s="4">
         <v>44350</v>
       </c>
       <c r="B35" s="10">
-        <v>0.62569444444444444</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10">
-        <v>0.63888888888888895</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>164</v>
@@ -5675,29 +5646,29 @@
         <v>115</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -5711,11 +5682,11 @@
         <v>44350</v>
       </c>
       <c r="B36" s="10">
-        <v>0.63888888888888895</v>
+        <v>0.62569444444444444</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10">
-        <v>0.66111111111111109</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>164</v>
@@ -5724,29 +5695,29 @@
         <v>115</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -5760,11 +5731,11 @@
         <v>44350</v>
       </c>
       <c r="B37" s="10">
-        <v>0.66111111111111109</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
-        <v>0.6875</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>164</v>
@@ -5773,29 +5744,29 @@
         <v>115</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>141</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -5809,42 +5780,42 @@
         <v>44350</v>
       </c>
       <c r="B38" s="10">
-        <v>0.6875</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
-        <v>0.69444444444444453</v>
+        <v>0.6875</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" t="s">
-        <v>298</v>
+        <v>115</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>299</v>
+        <v>141</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>301</v>
+        <v>163</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -5858,11 +5829,11 @@
         <v>44350</v>
       </c>
       <c r="B39" s="10">
-        <v>0.69444444444444453</v>
+        <v>0.6875</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
-        <v>0.72083333333333333</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>164</v>
@@ -5870,18 +5841,18 @@
       <c r="F39" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>303</v>
+      <c r="G39" t="s">
+        <v>298</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -5892,7 +5863,9 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
+      <c r="S39" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2" t="s">
@@ -5905,13 +5878,11 @@
         <v>44350</v>
       </c>
       <c r="B40" s="10">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10">
         <v>0.72083333333333333</v>
-      </c>
-      <c r="C40" s="4">
-        <v>44350</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0.84027777777777779</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>164</v>
@@ -5919,31 +5890,29 @@
       <c r="F40" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G40" t="s">
-        <v>298</v>
+      <c r="G40" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2" t="s">
@@ -5956,41 +5925,45 @@
         <v>44350</v>
       </c>
       <c r="B41" s="10">
-        <v>0.84027777777777779</v>
+        <v>0.72083333333333333</v>
       </c>
       <c r="C41" s="4">
         <v>44350</v>
       </c>
       <c r="D41" s="10">
-        <v>0.84930555555555554</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>308</v>
+        <v>81</v>
+      </c>
+      <c r="G41" t="s">
+        <v>298</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
+      <c r="S41" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2" t="s">
@@ -6003,33 +5976,31 @@
         <v>44350</v>
       </c>
       <c r="B42" s="10">
-        <v>0.84930555555555554</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="C42" s="4">
         <v>44350</v>
       </c>
       <c r="D42" s="10">
-        <v>0.9375</v>
+        <v>0.84930555555555554</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6052,37 +6023,39 @@
         <v>44350</v>
       </c>
       <c r="B43" s="10">
-        <v>0.9604166666666667</v>
+        <v>0.84930555555555554</v>
       </c>
       <c r="C43" s="4">
         <v>44350</v>
       </c>
       <c r="D43" s="10">
-        <v>3.888888888888889E-2</v>
+        <v>0.9375</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>307</v>
+        <v>115</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -6099,39 +6072,37 @@
         <v>44350</v>
       </c>
       <c r="B44" s="10">
-        <v>0.9375</v>
+        <v>0.9604166666666667</v>
       </c>
       <c r="C44" s="4">
         <v>44350</v>
       </c>
       <c r="D44" s="10">
-        <v>0.9604166666666667</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -6143,18 +6114,18 @@
       </c>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="95">
+    <row r="45" spans="1:23" ht="57">
       <c r="A45" s="4">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B45" s="10">
-        <v>4.0972222222222222E-2</v>
+        <v>0.9375</v>
       </c>
       <c r="C45" s="4">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="D45" s="10">
-        <v>0.20972222222222223</v>
+        <v>0.9604166666666667</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>164</v>
@@ -6163,34 +6134,30 @@
         <v>115</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>314</v>
+        <v>225</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2" t="s">
-        <v>318</v>
-      </c>
+      <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="2" t="s">
-        <v>348</v>
-      </c>
+      <c r="U45" s="2"/>
       <c r="V45" s="2" t="s">
         <v>347</v>
       </c>
@@ -6201,13 +6168,13 @@
         <v>44351</v>
       </c>
       <c r="B46" s="10">
-        <v>0.49791666666666662</v>
+        <v>4.0972222222222222E-2</v>
       </c>
       <c r="C46" s="4">
         <v>44351</v>
       </c>
       <c r="D46" s="10">
-        <v>0.51388888888888895</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>164</v>
@@ -6216,49 +6183,51 @@
         <v>115</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>141</v>
+        <v>314</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>345</v>
+        <v>252</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
+      <c r="U46" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="V46" s="2" t="s">
         <v>347</v>
       </c>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="152">
+    <row r="47" spans="1:23" ht="95">
       <c r="A47" s="4">
         <v>44351</v>
       </c>
       <c r="B47" s="10">
-        <v>0.51388888888888895</v>
+        <v>0.49791666666666662</v>
       </c>
       <c r="C47" s="4">
         <v>44351</v>
       </c>
       <c r="D47" s="10">
-        <v>0.53611111111111109</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>164</v>
@@ -6272,33 +6241,29 @@
       <c r="H47" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="T47" s="2"/>
-      <c r="U47" s="2" t="s">
-        <v>356</v>
-      </c>
+      <c r="U47" s="2"/>
       <c r="V47" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="W47" s="2"/>
     </row>
@@ -6307,13 +6272,13 @@
         <v>44351</v>
       </c>
       <c r="B48" s="10">
-        <v>0.20972222222222223</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="C48" s="4">
         <v>44351</v>
       </c>
       <c r="D48" s="10">
-        <v>0.29305555555555557</v>
+        <v>0.53611111111111109</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>164</v>
@@ -6322,27 +6287,39 @@
         <v>115</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I48" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="J48" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K48" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
+      <c r="P48" s="2">
+        <v>3</v>
+      </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
+      <c r="S48" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
+      <c r="U48" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="1:23" ht="19">
@@ -6350,13 +6327,13 @@
         <v>44351</v>
       </c>
       <c r="B49" s="10">
-        <v>0.29305555555555557</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="C49" s="4">
         <v>44351</v>
       </c>
       <c r="D49" s="10">
-        <v>0.31388888888888888</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>164</v>
@@ -6365,11 +6342,15 @@
         <v>115</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H49" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -6389,13 +6370,13 @@
         <v>44351</v>
       </c>
       <c r="B50" s="10">
-        <v>0.31388888888888888</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="C50" s="4">
         <v>44351</v>
       </c>
       <c r="D50" s="10">
-        <v>0.375</v>
+        <v>0.31388888888888888</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>164</v>
@@ -6404,15 +6385,13 @@
         <v>115</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2" t="s">
-        <v>469</v>
-      </c>
+      <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6430,13 +6409,13 @@
         <v>44351</v>
       </c>
       <c r="B51" s="10">
-        <v>0.375</v>
+        <v>0.31388888888888888</v>
       </c>
       <c r="C51" s="4">
         <v>44351</v>
       </c>
       <c r="D51" s="10">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>164</v>
@@ -6445,13 +6424,15 @@
         <v>115</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>349</v>
+        <v>224</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="L51" s="2" t="s">
+        <v>468</v>
+      </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6469,18 +6450,22 @@
         <v>44351</v>
       </c>
       <c r="B52" s="10">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="C52" s="4">
         <v>44351</v>
       </c>
       <c r="D52" s="10">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="G52" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -6504,22 +6489,18 @@
         <v>44351</v>
       </c>
       <c r="B53" s="10">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C53" s="4">
         <v>44351</v>
       </c>
       <c r="D53" s="10">
-        <v>0.99791666666666667</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>115</v>
-      </c>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -6538,132 +6519,110 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="95">
+    <row r="54" spans="1:23" ht="19">
       <c r="A54" s="4">
         <v>44351</v>
       </c>
       <c r="B54" s="10">
-        <v>0.5395833333333333</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C54" s="4">
         <v>44351</v>
       </c>
       <c r="D54" s="10">
-        <v>0.56597222222222221</v>
+        <v>0.99791666666666667</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>307</v>
+        <v>115</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>345</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="2" t="s">
-        <v>369</v>
-      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
-      <c r="O54" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="P54" s="2">
-        <v>10</v>
-      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
-      <c r="T54" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>363</v>
-      </c>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="133">
+    <row r="55" spans="1:23" ht="95">
       <c r="A55" s="4">
         <v>44351</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>374</v>
+      <c r="B55" s="10">
+        <v>0.5395833333333333</v>
       </c>
       <c r="C55" s="4">
         <v>44351</v>
       </c>
       <c r="D55" s="10">
-        <v>0.63680555555555551</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>371</v>
+        <v>122</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>166</v>
+        <v>345</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="P55" s="2">
         <v>10</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="2" t="s">
-        <v>377</v>
-      </c>
+      <c r="S55" s="2"/>
       <c r="T55" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="38">
+    <row r="56" spans="1:23" ht="133">
       <c r="A56" s="4">
         <v>44351</v>
       </c>
-      <c r="B56" s="10">
-        <v>0.60138888888888886</v>
+      <c r="B56" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="C56" s="4">
         <v>44351</v>
@@ -6675,30 +6634,30 @@
         <v>164</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>115</v>
+        <v>364</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>163</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>123</v>
+        <v>370</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>166</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P56" s="2">
         <v>10</v>
@@ -6706,608 +6665,606 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="95">
+    <row r="57" spans="1:23" ht="38">
       <c r="A57" s="4">
         <v>44351</v>
       </c>
       <c r="B57" s="10">
-        <v>0.57013888888888886</v>
+        <v>0.60138888888888886</v>
       </c>
       <c r="C57" s="4">
         <v>44351</v>
       </c>
       <c r="D57" s="10">
-        <v>0.60138888888888886</v>
+        <v>0.63680555555555551</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>307</v>
+        <v>115</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>382</v>
+        <v>163</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>392</v>
+        <v>123</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>384</v>
+        <v>166</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="P57" s="2">
         <v>10</v>
       </c>
-      <c r="Q57" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>410</v>
-      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
       <c r="S57" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="76">
+    <row r="58" spans="1:23" ht="95">
       <c r="A58" s="4">
         <v>44351</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>412</v>
+      <c r="B58" s="10">
+        <v>0.57013888888888886</v>
       </c>
       <c r="C58" s="4">
         <v>44351</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>412</v>
+      <c r="D58" s="10">
+        <v>0.60138888888888886</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>411</v>
+        <v>243</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="38">
+        <v>377</v>
+      </c>
+      <c r="W58" s="2"/>
+    </row>
+    <row r="59" spans="1:23" ht="76">
       <c r="A59" s="4">
         <v>44351</v>
       </c>
-      <c r="B59" s="10">
-        <v>0.65138888888888891</v>
+      <c r="B59" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="C59" s="4">
         <v>44351</v>
       </c>
-      <c r="D59" s="10">
-        <v>0.68611111111111101</v>
+      <c r="D59" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>143</v>
+        <v>410</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="O59" s="2" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="P59" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="R59" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="S59" s="2" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="W59" s="2"/>
-    </row>
-    <row r="60" spans="1:23" ht="76">
+        <v>418</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="38">
       <c r="A60" s="4">
         <v>44351</v>
       </c>
       <c r="B60" s="10">
-        <v>0.6875</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="C60" s="4">
         <v>44351</v>
       </c>
       <c r="D60" s="10">
-        <v>0.91666666666666663</v>
+        <v>0.68611111111111101</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>160</v>
+        <v>394</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="N60" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P60" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="O60" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="P60" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
+      <c r="T60" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="V60" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="57">
+        <v>397</v>
+      </c>
+      <c r="W60" s="2"/>
+    </row>
+    <row r="61" spans="1:23" ht="76">
       <c r="A61" s="4">
-        <v>44378</v>
+        <v>44351</v>
       </c>
       <c r="B61" s="10">
-        <v>0.79999999999999993</v>
+        <v>0.6875</v>
       </c>
       <c r="C61" s="4">
-        <v>44378</v>
+        <v>44351</v>
       </c>
       <c r="D61" s="10">
-        <v>0.9375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s">
-        <v>298</v>
+        <v>364</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>299</v>
+        <v>143</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="P61" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>435</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>380</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="38">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="57">
       <c r="A62" s="4">
         <v>44378</v>
       </c>
       <c r="B62" s="10">
-        <v>0.9375</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="C62" s="4">
         <v>44378</v>
       </c>
       <c r="D62" s="10">
-        <v>0.96597222222222223</v>
+        <v>0.9375</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>439</v>
+        <v>81</v>
+      </c>
+      <c r="G62" t="s">
+        <v>298</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>441</v>
+        <v>299</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="P62" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="U62" t="s">
-        <v>440</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="U62" s="2"/>
       <c r="V62" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="57">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="38">
       <c r="A63" s="4">
         <v>44378</v>
       </c>
       <c r="B63" s="10">
-        <v>0.9770833333333333</v>
+        <v>0.9375</v>
       </c>
       <c r="C63" s="4">
-        <v>44379</v>
-      </c>
-      <c r="D63" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>44378</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0.96597222222222223</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>105</v>
+        <v>364</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="P63" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q63" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>443</v>
+      </c>
       <c r="R63" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="U63" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
+      </c>
+      <c r="U63" t="s">
+        <v>439</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="57">
       <c r="A64" s="4">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B64" s="10">
-        <v>0.49583333333333335</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="C64" s="4">
         <v>44379</v>
       </c>
-      <c r="D64" s="10">
-        <v>0.54722222222222217</v>
+      <c r="D64" s="11">
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>365</v>
+        <v>105</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>122</v>
+        <v>399</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="L64" s="2"/>
       <c r="M64" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="N64" t="s">
-        <v>466</v>
+        <v>447</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="P64" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="19">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="57">
       <c r="A65" s="4">
         <v>44379</v>
       </c>
       <c r="B65" s="10">
-        <v>0.54722222222222217</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="C65" s="4">
         <v>44379</v>
       </c>
       <c r="D65" s="10">
-        <v>0.5625</v>
+        <v>0.54722222222222217</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>224</v>
+        <v>452</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>473</v>
+        <v>122</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N65" t="s">
+        <v>465</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="P65" s="2">
         <v>10</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="19">
@@ -7315,37 +7272,37 @@
         <v>44379</v>
       </c>
       <c r="B66" s="10">
-        <v>0.5625</v>
+        <v>0.54722222222222217</v>
       </c>
       <c r="C66" s="4">
         <v>44379</v>
       </c>
       <c r="D66" s="10">
-        <v>0.65416666666666667</v>
+        <v>0.5625</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7355,60 +7312,60 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="38">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="19">
       <c r="A67" s="4">
         <v>44379</v>
       </c>
       <c r="B67" s="10">
-        <v>0.65416666666666667</v>
+        <v>0.5625</v>
       </c>
       <c r="C67" s="4">
         <v>44379</v>
       </c>
       <c r="D67" s="10">
-        <v>0.6875</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>370</v>
+        <v>470</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>475</v>
+        <v>122</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>239</v>
+        <v>470</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>475</v>
+        <v>122</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -7418,87 +7375,85 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="19">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="38">
       <c r="A68" s="4">
         <v>44379</v>
       </c>
       <c r="B68" s="10">
-        <v>0.6875</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="C68" s="4">
         <v>44379</v>
       </c>
       <c r="D68" s="10">
-        <v>0.71666666666666667</v>
+        <v>0.6875</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>471</v>
+        <v>369</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>122</v>
+        <v>474</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>471</v>
+        <v>239</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>476</v>
+        <v>143</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>122</v>
+        <v>474</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
-      <c r="O68" s="2" t="s">
-        <v>478</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="2">
         <v>10</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="19">
@@ -7506,61 +7461,87 @@
         <v>44379</v>
       </c>
       <c r="B69" s="10">
-        <v>0.71666666666666667</v>
+        <v>0.6875</v>
       </c>
       <c r="C69" s="4">
         <v>44379</v>
       </c>
       <c r="D69" s="10">
-        <v>0.72499999999999998</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
+      <c r="O69" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="P69" s="2">
+        <v>10</v>
+      </c>
       <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
+      <c r="R69" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="70" spans="1:23" ht="19">
       <c r="A70" s="4">
         <v>44379</v>
       </c>
       <c r="B70" s="10">
-        <v>0.72499999999999998</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="C70" s="4">
         <v>44379</v>
       </c>
       <c r="D70" s="10">
-        <v>0.76874999999999993</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>219</v>
+        <v>478</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -7581,25 +7562,25 @@
     </row>
     <row r="71" spans="1:23" ht="19">
       <c r="A71" s="4">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B71" s="10">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="C71" s="4">
+        <v>44379</v>
+      </c>
+      <c r="D71" s="10">
         <v>0.76874999999999993</v>
       </c>
-      <c r="C71" s="4">
-        <v>44380</v>
-      </c>
-      <c r="D71" s="10">
-        <v>0.81041666666666667</v>
-      </c>
       <c r="E71" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>480</v>
+        <v>219</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -7618,200 +7599,200 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" ht="38">
+    <row r="72" spans="1:23" ht="19">
       <c r="A72" s="4">
         <v>44380</v>
       </c>
       <c r="B72" s="10">
-        <v>0.80833333333333324</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="C72" s="4">
         <v>44380</v>
       </c>
       <c r="D72" s="10">
-        <v>0.93402777777777779</v>
+        <v>0.81041666666666667</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="P72" s="2">
-        <v>0</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-      <c r="R72" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="57">
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+    </row>
+    <row r="73" spans="1:23" ht="38">
       <c r="A73" s="4">
         <v>44380</v>
       </c>
       <c r="B73" s="10">
-        <v>0.93402777777777779</v>
+        <v>0.80833333333333324</v>
       </c>
       <c r="C73" s="4">
         <v>44380</v>
       </c>
       <c r="D73" s="10">
-        <v>0.97569444444444453</v>
+        <v>0.93402777777777779</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>88</v>
+        <v>364</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>143</v>
+        <v>480</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>122</v>
+        <v>480</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>122</v>
+        <v>299</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P73" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="S73" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="T73" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="U73" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="V73" s="2" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="19">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="57">
       <c r="A74" s="4">
         <v>44380</v>
       </c>
       <c r="B74" s="10">
-        <v>0.45833333333333331</v>
+        <v>0.93402777777777779</v>
       </c>
       <c r="C74" s="4">
         <v>44380</v>
       </c>
       <c r="D74" s="10">
-        <v>0.5</v>
+        <v>0.97569444444444453</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P74" s="2">
+        <v>9</v>
+      </c>
       <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
+      <c r="R74" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
+      <c r="T74" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
+      <c r="V74" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="W74" s="2" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="75" spans="1:23" ht="19">
       <c r="A75" s="4">
         <v>44380</v>
       </c>
       <c r="B75" s="10">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C75" s="4">
         <v>44380</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>487</v>
+      <c r="D75" s="10">
+        <v>0.5</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>219</v>
+        <v>452</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -7835,38 +7816,28 @@
         <v>44380</v>
       </c>
       <c r="B76" s="10">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C76" s="4">
         <v>44380</v>
       </c>
-      <c r="D76" s="10">
-        <v>0.58124999999999993</v>
+      <c r="D76" s="10" t="s">
+        <v>486</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -7884,28 +7855,38 @@
         <v>44380</v>
       </c>
       <c r="B77" s="10">
-        <v>0.58124999999999993</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C77" s="4">
         <v>44380</v>
       </c>
       <c r="D77" s="10">
-        <v>0.58680555555555558</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -7918,140 +7899,136 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="171">
+    <row r="78" spans="1:23" ht="19">
       <c r="A78" s="4">
         <v>44380</v>
       </c>
       <c r="B78" s="10">
-        <v>0.58680555555555558</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="C78" s="4">
         <v>44380</v>
       </c>
-      <c r="D78" s="13">
-        <v>0.73749999999999993</v>
+      <c r="D78" s="10">
+        <v>0.58680555555555558</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I78" t="s">
-        <v>122</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>493</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
-      <c r="P78" s="2">
-        <v>8</v>
-      </c>
+      <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
-      <c r="S78" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>495</v>
-      </c>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
       <c r="U78" s="2"/>
-      <c r="V78" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="W78" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="19">
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+    </row>
+    <row r="79" spans="1:23" ht="171">
       <c r="A79" s="4">
         <v>44380</v>
       </c>
       <c r="B79" s="10">
-        <v>0.73749999999999993</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="C79" s="4">
         <v>44380</v>
       </c>
-      <c r="D79" s="10">
-        <v>0.87569444444444444</v>
+      <c r="D79" s="13">
+        <v>0.73749999999999993</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I79" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I79" t="s">
         <v>122</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>299</v>
+        <v>492</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
+      <c r="P79" s="2">
+        <v>8</v>
+      </c>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
+      <c r="S79" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>494</v>
+      </c>
       <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
+      <c r="V79" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="W79" s="2" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="80" spans="1:23" ht="19">
       <c r="A80" s="4">
         <v>44380</v>
       </c>
       <c r="B80" s="10">
-        <v>0.87777777777777777</v>
+        <v>0.73749999999999993</v>
       </c>
       <c r="C80" s="4">
         <v>44380</v>
       </c>
       <c r="D80" s="10">
-        <v>0.90277777777777779</v>
+        <v>0.87569444444444444</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>370</v>
+        <v>497</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -8070,38 +8047,32 @@
         <v>44380</v>
       </c>
       <c r="B81" s="10">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="C81" s="4">
+        <v>44380</v>
+      </c>
+      <c r="D81" s="10">
         <v>0.90277777777777779</v>
       </c>
-      <c r="C81" s="4">
-        <v>44381</v>
-      </c>
-      <c r="D81" s="10">
-        <v>8.3333333333333329E-2</v>
-      </c>
       <c r="E81" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s">
-        <v>499</v>
+        <v>364</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -8116,39 +8087,41 @@
     </row>
     <row r="82" spans="1:23" ht="19">
       <c r="A82" s="4">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B82" s="10">
-        <v>8.3333333333333329E-2</v>
+        <v>0.90277777777777779</v>
       </c>
       <c r="C82" s="4">
         <v>44381</v>
       </c>
       <c r="D82" s="10">
-        <v>0.29166666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>313</v>
+        <v>88</v>
+      </c>
+      <c r="G82" t="s">
+        <v>498</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>500</v>
+        <v>143</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>313</v>
+        <v>483</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L82" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -8166,13 +8139,13 @@
         <v>44381</v>
       </c>
       <c r="B83" s="10">
-        <v>0.29166666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C83" s="4">
         <v>44381</v>
       </c>
       <c r="D83" s="10">
-        <v>0.375</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>164</v>
@@ -8181,23 +8154,21 @@
         <v>164</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>501</v>
+        <v>313</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>143</v>
+        <v>499</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>502</v>
+        <v>123</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>503</v>
+        <v>313</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>502</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -8215,37 +8186,37 @@
         <v>44381</v>
       </c>
       <c r="B84" s="10">
-        <v>0.375</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C84" s="4">
         <v>44381</v>
       </c>
       <c r="D84" s="10">
-        <v>0.54791666666666672</v>
+        <v>0.375</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>299</v>
+        <v>143</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>122</v>
+        <v>501</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>122</v>
+        <v>501</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -8264,36 +8235,38 @@
         <v>44381</v>
       </c>
       <c r="B85" s="10">
-        <v>0.54861111111111105</v>
+        <v>0.375</v>
       </c>
       <c r="C85" s="4">
         <v>44381</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>505</v>
+      <c r="D85" s="10">
+        <v>0.54791666666666672</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>239</v>
+        <v>503</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L85" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -8311,29 +8284,35 @@
         <v>44381</v>
       </c>
       <c r="B86" s="10">
-        <v>0.59930555555555554</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="C86" s="4">
         <v>44381</v>
       </c>
-      <c r="D86" s="10">
-        <v>0.66666666666666663</v>
+      <c r="D86" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>507</v>
+        <v>239</v>
       </c>
       <c r="H86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="K86" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -8352,38 +8331,30 @@
         <v>44381</v>
       </c>
       <c r="B87" s="10">
-        <v>0.66666666666666663</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="C87" s="4">
         <v>44381</v>
       </c>
       <c r="D87" s="10">
-        <v>0.79166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -8401,34 +8372,34 @@
         <v>44381</v>
       </c>
       <c r="B88" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C88" s="4">
+        <v>44381</v>
+      </c>
+      <c r="D88" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C88" s="4">
-        <v>44382</v>
-      </c>
-      <c r="D88" s="10">
-        <v>8.3333333333333329E-2</v>
-      </c>
       <c r="E88" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>313</v>
+        <v>507</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>123</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>313</v>
+        <v>123</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>509</v>
+        <v>299</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>123</v>
@@ -8447,10 +8418,10 @@
     </row>
     <row r="89" spans="1:23" ht="19">
       <c r="A89" s="4">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B89" s="10">
-        <v>8.3333333333333329E-2</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C89" s="4">
         <v>44382</v>
@@ -8462,20 +8433,26 @@
         <v>164</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>510</v>
+        <v>313</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>299</v>
+        <v>143</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -8493,35 +8470,31 @@
         <v>44382</v>
       </c>
       <c r="B90" s="10">
-        <v>0.45833333333333331</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C90" s="4">
         <v>44382</v>
       </c>
       <c r="D90" s="10">
-        <v>0.5</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>512</v>
+        <v>299</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>512</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -8540,29 +8513,35 @@
         <v>44382</v>
       </c>
       <c r="B91" s="10">
-        <v>0.52083333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C91" s="4">
         <v>44382</v>
       </c>
       <c r="D91" s="10">
-        <v>0.60416666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>511</v>
+      </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -8581,32 +8560,28 @@
         <v>44382</v>
       </c>
       <c r="B92" s="10">
-        <v>0.60416666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="C92" s="4">
         <v>44382</v>
       </c>
       <c r="D92" s="10">
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>219</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -8626,33 +8601,33 @@
         <v>44382</v>
       </c>
       <c r="B93" s="10">
-        <v>0.62569444444444444</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C93" s="4">
         <v>44382</v>
       </c>
       <c r="D93" s="10">
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I93" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="J93" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -8670,35 +8645,33 @@
       <c r="A94" s="4">
         <v>44382</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>517</v>
+      <c r="B94" s="10">
+        <v>0.62569444444444444</v>
       </c>
       <c r="C94" s="4">
         <v>44382</v>
       </c>
       <c r="D94" s="10">
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>239</v>
+        <v>509</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>239</v>
+        <v>509</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -8717,35 +8690,35 @@
       <c r="A95" s="4">
         <v>44382</v>
       </c>
-      <c r="B95" s="10">
-        <v>0.83333333333333337</v>
+      <c r="B95" s="10" t="s">
+        <v>516</v>
       </c>
       <c r="C95" s="4">
         <v>44382</v>
       </c>
       <c r="D95" s="10">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>518</v>
+        <v>239</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>518</v>
+        <v>239</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>512</v>
+        <v>143</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -8765,27 +8738,35 @@
         <v>44382</v>
       </c>
       <c r="B96" s="10">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C96" s="4">
         <v>44382</v>
       </c>
       <c r="D96" s="10">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>511</v>
+      </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -8804,22 +8785,22 @@
         <v>44382</v>
       </c>
       <c r="B97" s="10">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="C97" s="4">
         <v>44382</v>
       </c>
       <c r="D97" s="10">
-        <v>0.44444444444444442</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>136</v>
+        <v>518</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -8843,35 +8824,27 @@
         <v>44382</v>
       </c>
       <c r="B98" s="10">
-        <v>0.44444444444444442</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C98" s="4">
         <v>44382</v>
       </c>
-      <c r="D98" s="10">
-        <v>0.47222222222222227</v>
+      <c r="D98" s="10" t="s">
+        <v>523</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -8885,10 +8858,198 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
+    <row r="99" spans="1:23" ht="38">
+      <c r="A99" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C99" s="4">
+        <v>44382</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+    </row>
+    <row r="100" spans="1:23" ht="19">
+      <c r="A100" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B100" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C100" s="4">
+        <v>44383</v>
+      </c>
+      <c r="D100" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+    </row>
+    <row r="101" spans="1:23" ht="19">
+      <c r="A101" s="4">
+        <v>44383</v>
+      </c>
+      <c r="B101" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C101" s="4">
+        <v>44383</v>
+      </c>
+      <c r="D101" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+    </row>
+    <row r="102" spans="1:23" ht="19">
+      <c r="A102" s="4">
+        <v>44383</v>
+      </c>
+      <c r="B102" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C102" s="4">
+        <v>44383</v>
+      </c>
+      <c r="D102" s="10">
+        <v>0.10625</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" xr:uid="{5F03BD2C-77A7-8E4B-8726-BED3D7474CB8}"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{5F03BD2C-77A7-8E4B-8726-BED3D7474CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -9741,10 +9902,10 @@
         <v>323</v>
       </c>
       <c r="B1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" t="s">
         <v>457</v>
-      </c>
-      <c r="C1" t="s">
-        <v>458</v>
       </c>
       <c r="D1" t="s">
         <v>342</v>
@@ -9943,16 +10104,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
         <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
